--- a/DBPerform19-23.xlsx
+++ b/DBPerform19-23.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aussa\OneDrive\เดสก์ท็อป\RelationDB\DB_Performance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aussa\OneDrive\เดสก์ท็อป\Python\Streamlit\SFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61CBB333-0CBA-432C-A348-94F1C4F1B95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37CD914-6F22-4960-991D-C08DB37E55D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AB2B3DA0-8224-4CD9-AF96-D454C20ED55E}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="46">
-  <si>
-    <t>AT_FC</t>
-  </si>
   <si>
     <t>Group_Brand</t>
   </si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>2023FC</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -528,74 +528,74 @@
   <dimension ref="A1:U540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -603,13 +603,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
       </c>
       <c r="E2">
         <v>-53.696910000000017</v>
@@ -668,13 +668,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>-32.280370000000005</v>
@@ -733,13 +733,13 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>87.574139999999986</v>
@@ -798,13 +798,13 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>-61.057300000000012</v>
@@ -863,13 +863,13 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>141.27105</v>
@@ -928,13 +928,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>-148.71555000000001</v>
@@ -993,13 +993,13 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>173.55142000000001</v>
@@ -1058,13 +1058,13 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1123,13 +1123,13 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1188,13 +1188,13 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>2023</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1318,13 +1318,13 @@
         <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         <v>2023</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1513,13 +1513,13 @@
         <v>2023</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>-2220.6465199999961</v>
@@ -1578,13 +1578,13 @@
         <v>2023</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>-3804.1342600000035</v>
@@ -1643,13 +1643,13 @@
         <v>2023</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>2062.5833399999915</v>
@@ -1708,13 +1708,13 @@
         <v>2023</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>-615.59906000000876</v>
@@ -1773,13 +1773,13 @@
         <v>2023</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>4283.2298599999876</v>
@@ -1838,13 +1838,13 @@
         <v>2023</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>-2706.7432800000001</v>
@@ -1903,13 +1903,13 @@
         <v>2023</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>8087.3641199999911</v>
@@ -1968,13 +1968,13 @@
         <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>-1806.1618200000084</v>
@@ -2033,13 +2033,13 @@
         <v>2023</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>-1469.3891700000001</v>
@@ -2098,13 +2098,13 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>2766.6272699999927</v>
@@ -2163,13 +2163,13 @@
         <v>2023</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>633.93428999999276</v>
@@ -2228,13 +2228,13 @@
         <v>2023</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27">
         <v>4572.7890900000011</v>
@@ -2293,13 +2293,13 @@
         <v>2023</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>-2188.2766999999999</v>
@@ -2358,13 +2358,13 @@
         <v>2023</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>6042.1782600000015</v>
@@ -2423,13 +2423,13 @@
         <v>2023</v>
       </c>
       <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
         <v>33</v>
       </c>
-      <c r="C30" t="s">
-        <v>34</v>
-      </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>-4353.000289999999</v>
@@ -2488,13 +2488,13 @@
         <v>2023</v>
       </c>
       <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>-5222.2217699999665</v>
@@ -2553,13 +2553,13 @@
         <v>2023</v>
       </c>
       <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>6685.0204400000011</v>
@@ -2618,13 +2618,13 @@
         <v>2023</v>
       </c>
       <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>3181.1466200000013</v>
@@ -2683,13 +2683,13 @@
         <v>2023</v>
       </c>
       <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34">
         <v>11038.02073</v>
@@ -2748,13 +2748,13 @@
         <v>2023</v>
       </c>
       <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
         <v>33</v>
       </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E35">
         <v>-3506.6872899999998</v>
@@ -2813,13 +2813,13 @@
         <v>2023</v>
       </c>
       <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
         <v>33</v>
       </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E36">
         <v>16260.242499999968</v>
@@ -2878,13 +2878,13 @@
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>-89.827309999999997</v>
@@ -2943,13 +2943,13 @@
         <v>2023</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>-21.091790000000003</v>
@@ -3008,13 +3008,13 @@
         <v>2023</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>100.02483000000002</v>
@@ -3073,13 +3073,13 @@
         <v>2023</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>-140.7637</v>
@@ -3138,13 +3138,13 @@
         <v>2023</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41">
         <v>189.85214000000002</v>
@@ -3203,13 +3203,13 @@
         <v>2023</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E42">
         <v>-240.78853000000004</v>
@@ -3268,13 +3268,13 @@
         <v>2023</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>210.94393000000002</v>
@@ -3333,13 +3333,13 @@
         <v>2023</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44">
         <v>-1218.9449400000003</v>
@@ -3398,13 +3398,13 @@
         <v>2023</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45">
         <v>-321.10515000000004</v>
@@ -3463,13 +3463,13 @@
         <v>2023</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E46">
         <v>367.00395999999978</v>
@@ -3528,13 +3528,13 @@
         <v>2023</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <v>-257.60107000000028</v>
@@ -3593,13 +3593,13 @@
         <v>2023</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E48">
         <v>1585.9489000000001</v>
@@ -3658,13 +3658,13 @@
         <v>2023</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E49">
         <v>-624.60503000000006</v>
@@ -3723,13 +3723,13 @@
         <v>2023</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E50">
         <v>1907.0540500000002</v>
@@ -3788,13 +3788,13 @@
         <v>2023</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3853,13 +3853,13 @@
         <v>2023</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3918,13 +3918,13 @@
         <v>2023</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>2023</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4048,13 +4048,13 @@
         <v>2023</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -4113,13 +4113,13 @@
         <v>2023</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4178,13 +4178,13 @@
         <v>2023</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -4243,13 +4243,13 @@
         <v>2023</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E58">
         <v>-905.52026999999998</v>
@@ -4308,13 +4308,13 @@
         <v>2023</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E59">
         <v>-34.021350000000005</v>
@@ -4373,13 +4373,13 @@
         <v>2023</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E60">
         <v>345.79476</v>
@@ -4438,13 +4438,13 @@
         <v>2023</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E61">
         <v>-39.444059999999972</v>
@@ -4503,13 +4503,13 @@
         <v>2023</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E62">
         <v>1251.31503</v>
@@ -4568,13 +4568,13 @@
         <v>2023</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E63">
         <v>-400.34722999999997</v>
@@ -4633,13 +4633,13 @@
         <v>2023</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E64">
         <v>1285.33638</v>
@@ -4698,13 +4698,13 @@
         <v>2023</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E65">
         <v>-332.74588999999997</v>
@@ -4763,13 +4763,13 @@
         <v>2023</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E66">
         <v>-137.54250000000002</v>
@@ -4828,13 +4828,13 @@
         <v>2023</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E67">
         <v>294.31916999999993</v>
@@ -4893,13 +4893,13 @@
         <v>2023</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E68">
         <v>0.82949999999991719</v>
@@ -4958,13 +4958,13 @@
         <v>2023</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E69">
         <v>627.0650599999999</v>
@@ -5023,13 +5023,13 @@
         <v>2023</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E70">
         <v>-293.48966999999999</v>
@@ -5088,13 +5088,13 @@
         <v>2023</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E71">
         <v>764.60755999999992</v>
@@ -5153,13 +5153,13 @@
         <v>2023</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E72">
         <v>-1465.3194600000002</v>
@@ -5218,13 +5218,13 @@
         <v>2023</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E73">
         <v>-1768.5277899999999</v>
@@ -5283,13 +5283,13 @@
         <v>2023</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E74">
         <v>1509.3023000000007</v>
@@ -5348,13 +5348,13 @@
         <v>2023</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E75">
         <v>73.855060000000591</v>
@@ -5413,13 +5413,13 @@
         <v>2023</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E76">
         <v>2974.6217600000009</v>
@@ -5478,13 +5478,13 @@
         <v>2023</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E77">
         <v>-1437.0220100000001</v>
@@ -5543,13 +5543,13 @@
         <v>2023</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E78">
         <v>4743.149550000001</v>
@@ -5608,13 +5608,13 @@
         <v>2023</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E79">
         <v>-423.58834999999999</v>
@@ -5673,13 +5673,13 @@
         <v>2023</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E80">
         <v>-244.58117000000004</v>
@@ -5738,13 +5738,13 @@
         <v>2023</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E81">
         <v>736.78385000000026</v>
@@ -5803,13 +5803,13 @@
         <v>2023</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E82">
         <v>-212.11698999999976</v>
@@ -5868,13 +5868,13 @@
         <v>2023</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E83">
         <v>1160.3722000000002</v>
@@ -5933,13 +5933,13 @@
         <v>2023</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E84">
         <v>-952.25036999999998</v>
@@ -5998,13 +5998,13 @@
         <v>2023</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E85">
         <v>1404.9533700000004</v>
@@ -6063,13 +6063,13 @@
         <v>2023</v>
       </c>
       <c r="B86" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" t="s">
         <v>42</v>
       </c>
-      <c r="C86" t="s">
-        <v>43</v>
-      </c>
       <c r="D86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E86">
         <v>-889.49930999999992</v>
@@ -6128,13 +6128,13 @@
         <v>2023</v>
       </c>
       <c r="B87" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" t="s">
         <v>42</v>
       </c>
-      <c r="C87" t="s">
-        <v>43</v>
-      </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E87">
         <v>-1007.7385099999996</v>
@@ -6193,13 +6193,13 @@
         <v>2023</v>
       </c>
       <c r="B88" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" t="s">
         <v>42</v>
       </c>
-      <c r="C88" t="s">
-        <v>43</v>
-      </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E88">
         <v>1403.1262100000047</v>
@@ -6258,13 +6258,13 @@
         <v>2023</v>
       </c>
       <c r="B89" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" t="s">
         <v>42</v>
       </c>
-      <c r="C89" t="s">
-        <v>43</v>
-      </c>
       <c r="D89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E89">
         <v>38.924350000004459</v>
@@ -6323,13 +6323,13 @@
         <v>2023</v>
       </c>
       <c r="B90" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" t="s">
         <v>42</v>
       </c>
-      <c r="C90" t="s">
-        <v>43</v>
-      </c>
       <c r="D90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E90">
         <v>2292.6255200000046</v>
@@ -6388,13 +6388,13 @@
         <v>2023</v>
       </c>
       <c r="B91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" t="s">
         <v>42</v>
       </c>
-      <c r="C91" t="s">
-        <v>43</v>
-      </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E91">
         <v>-1372.9878400000002</v>
@@ -6453,13 +6453,13 @@
         <v>2023</v>
       </c>
       <c r="B92" t="s">
+        <v>41</v>
+      </c>
+      <c r="C92" t="s">
         <v>42</v>
       </c>
-      <c r="C92" t="s">
-        <v>43</v>
-      </c>
       <c r="D92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E92">
         <v>3300.3640300000043</v>
@@ -6518,13 +6518,13 @@
         <v>2023</v>
       </c>
       <c r="B93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E93">
         <v>-2173.8444800000016</v>
@@ -6583,13 +6583,13 @@
         <v>2023</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E94">
         <v>-2019.9677599999998</v>
@@ -6648,13 +6648,13 @@
         <v>2023</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E95">
         <v>3759.4962299999806</v>
@@ -6713,13 +6713,13 @@
         <v>2023</v>
       </c>
       <c r="B96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E96">
         <v>984.91016999998044</v>
@@ -6778,13 +6778,13 @@
         <v>2023</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D97" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E97">
         <v>5933.3407099999822</v>
@@ -6843,13 +6843,13 @@
         <v>2023</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E98">
         <v>-2819.9571400000004</v>
@@ -6908,13 +6908,13 @@
         <v>2023</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E99">
         <v>7953.3084699999818</v>
@@ -6973,13 +6973,13 @@
         <v>2019</v>
       </c>
       <c r="B100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" t="s">
         <v>21</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>22</v>
-      </c>
-      <c r="D100" t="s">
-        <v>23</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -7038,13 +7038,13 @@
         <v>2019</v>
       </c>
       <c r="B101" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s">
         <v>21</v>
       </c>
-      <c r="C101" t="s">
-        <v>22</v>
-      </c>
       <c r="D101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         <v>2019</v>
       </c>
       <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s">
         <v>21</v>
       </c>
-      <c r="C102" t="s">
-        <v>22</v>
-      </c>
       <c r="D102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -7168,13 +7168,13 @@
         <v>2019</v>
       </c>
       <c r="B103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" t="s">
         <v>21</v>
       </c>
-      <c r="C103" t="s">
-        <v>22</v>
-      </c>
       <c r="D103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -7233,13 +7233,13 @@
         <v>2019</v>
       </c>
       <c r="B104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" t="s">
         <v>21</v>
       </c>
-      <c r="C104" t="s">
-        <v>22</v>
-      </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -7298,13 +7298,13 @@
         <v>2019</v>
       </c>
       <c r="B105" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" t="s">
         <v>21</v>
       </c>
-      <c r="C105" t="s">
-        <v>22</v>
-      </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -7363,13 +7363,13 @@
         <v>2019</v>
       </c>
       <c r="B106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" t="s">
         <v>21</v>
       </c>
-      <c r="C106" t="s">
-        <v>22</v>
-      </c>
       <c r="D106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -7428,13 +7428,13 @@
         <v>2019</v>
       </c>
       <c r="B107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E107">
         <v>-4652.265520000019</v>
@@ -7493,13 +7493,13 @@
         <v>2019</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E108">
         <v>-9055.1827900000571</v>
@@ -7558,13 +7558,13 @@
         <v>2019</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E109">
         <v>3679.0093899997555</v>
@@ -7623,13 +7623,13 @@
         <v>2019</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D110" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E110">
         <v>-732.84614000024476</v>
@@ -7688,13 +7688,13 @@
         <v>2019</v>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E111">
         <v>8331.2749099997745</v>
@@ -7753,13 +7753,13 @@
         <v>2019</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E112">
         <v>-4422.5370800000001</v>
@@ -7818,13 +7818,13 @@
         <v>2019</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E113">
         <v>17386.457699999832</v>
@@ -7883,13 +7883,13 @@
         <v>2019</v>
       </c>
       <c r="B114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E114">
         <v>-186.27379000000056</v>
@@ -7948,13 +7948,13 @@
         <v>2019</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E115">
         <v>-205.82599000000033</v>
@@ -8013,13 +8013,13 @@
         <v>2019</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E116">
         <v>184.39546999999905</v>
@@ -8078,13 +8078,13 @@
         <v>2019</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E117">
         <v>86.287829999999047</v>
@@ -8143,13 +8143,13 @@
         <v>2019</v>
       </c>
       <c r="B118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D118" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E118">
         <v>370.66925999999961</v>
@@ -8208,13 +8208,13 @@
         <v>2019</v>
       </c>
       <c r="B119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E119">
         <v>-98.107640000000004</v>
@@ -8273,13 +8273,13 @@
         <v>2019</v>
       </c>
       <c r="B120" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E120">
         <v>576.49524999999994</v>
@@ -8338,13 +8338,13 @@
         <v>2019</v>
       </c>
       <c r="B121" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" t="s">
         <v>33</v>
       </c>
-      <c r="C121" t="s">
-        <v>34</v>
-      </c>
       <c r="D121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E121">
         <v>-6165.6194699999951</v>
@@ -8403,13 +8403,13 @@
         <v>2019</v>
       </c>
       <c r="B122" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122" t="s">
         <v>33</v>
       </c>
-      <c r="C122" t="s">
-        <v>34</v>
-      </c>
       <c r="D122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E122">
         <v>-8337.2647600000073</v>
@@ -8468,13 +8468,13 @@
         <v>2019</v>
       </c>
       <c r="B123" t="s">
+        <v>32</v>
+      </c>
+      <c r="C123" t="s">
         <v>33</v>
       </c>
-      <c r="C123" t="s">
-        <v>34</v>
-      </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E123">
         <v>8101.2930099999476</v>
@@ -8533,13 +8533,13 @@
         <v>2019</v>
       </c>
       <c r="B124" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124" t="s">
         <v>33</v>
       </c>
-      <c r="C124" t="s">
-        <v>34</v>
-      </c>
       <c r="D124" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E124">
         <v>2889.2493699999472</v>
@@ -8598,13 +8598,13 @@
         <v>2019</v>
       </c>
       <c r="B125" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" t="s">
         <v>33</v>
       </c>
-      <c r="C125" t="s">
-        <v>34</v>
-      </c>
       <c r="D125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E125">
         <v>14266.912479999943</v>
@@ -8663,13 +8663,13 @@
         <v>2019</v>
       </c>
       <c r="B126" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126" t="s">
         <v>33</v>
       </c>
-      <c r="C126" t="s">
-        <v>34</v>
-      </c>
       <c r="D126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E126">
         <v>-5213.1436400000002</v>
@@ -8728,13 +8728,13 @@
         <v>2019</v>
       </c>
       <c r="B127" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" t="s">
         <v>33</v>
       </c>
-      <c r="C127" t="s">
-        <v>34</v>
-      </c>
       <c r="D127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E127">
         <v>22604.17723999995</v>
@@ -8793,13 +8793,13 @@
         <v>2019</v>
       </c>
       <c r="B128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E128">
         <v>-77.947609999999983</v>
@@ -8858,13 +8858,13 @@
         <v>2019</v>
       </c>
       <c r="B129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E129">
         <v>-197.26276000000001</v>
@@ -8923,13 +8923,13 @@
         <v>2019</v>
       </c>
       <c r="B130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E130">
         <v>0.10736000000009938</v>
@@ -8988,13 +8988,13 @@
         <v>2019</v>
       </c>
       <c r="B131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D131" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E131">
         <v>-108.8994799999999</v>
@@ -9053,13 +9053,13 @@
         <v>2019</v>
       </c>
       <c r="B132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D132" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E132">
         <v>78.054970000000083</v>
@@ -9118,13 +9118,13 @@
         <v>2019</v>
       </c>
       <c r="B133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E133">
         <v>-109.00684</v>
@@ -9183,13 +9183,13 @@
         <v>2019</v>
       </c>
       <c r="B134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E134">
         <v>275.3177300000001</v>
@@ -9248,13 +9248,13 @@
         <v>2019</v>
       </c>
       <c r="B135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C135" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D135" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -9313,13 +9313,13 @@
         <v>2019</v>
       </c>
       <c r="B136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -9378,13 +9378,13 @@
         <v>2019</v>
       </c>
       <c r="B137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D137" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -9443,13 +9443,13 @@
         <v>2019</v>
       </c>
       <c r="B138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D138" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -9508,13 +9508,13 @@
         <v>2019</v>
       </c>
       <c r="B139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D139" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -9573,13 +9573,13 @@
         <v>2019</v>
       </c>
       <c r="B140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -9703,13 +9703,13 @@
         <v>2019</v>
       </c>
       <c r="B142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D142" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E142">
         <v>-273.98275000000001</v>
@@ -9768,13 +9768,13 @@
         <v>2019</v>
       </c>
       <c r="B143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E143">
         <v>-378.6182300000001</v>
@@ -9833,13 +9833,13 @@
         <v>2019</v>
       </c>
       <c r="B144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C144" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E144">
         <v>311.10186999999962</v>
@@ -9898,13 +9898,13 @@
         <v>2019</v>
       </c>
       <c r="B145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E145">
         <v>226.19380999999964</v>
@@ -9963,13 +9963,13 @@
         <v>2019</v>
       </c>
       <c r="B146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E146">
         <v>585.08461999999963</v>
@@ -10028,13 +10028,13 @@
         <v>2019</v>
       </c>
       <c r="B147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C147" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D147" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E147">
         <v>-84.908059999999978</v>
@@ -10093,13 +10093,13 @@
         <v>2019</v>
       </c>
       <c r="B148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C148" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D148" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E148">
         <v>963.70284999999978</v>
@@ -10158,13 +10158,13 @@
         <v>2019</v>
       </c>
       <c r="B149" t="s">
+        <v>41</v>
+      </c>
+      <c r="C149" t="s">
         <v>42</v>
       </c>
-      <c r="C149" t="s">
-        <v>43</v>
-      </c>
       <c r="D149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E149">
         <v>-812.26407000000006</v>
@@ -10223,13 +10223,13 @@
         <v>2019</v>
       </c>
       <c r="B150" t="s">
+        <v>41</v>
+      </c>
+      <c r="C150" t="s">
         <v>42</v>
       </c>
-      <c r="C150" t="s">
-        <v>43</v>
-      </c>
       <c r="D150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E150">
         <v>-1446.7732999999976</v>
@@ -10288,13 +10288,13 @@
         <v>2019</v>
       </c>
       <c r="B151" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" t="s">
         <v>42</v>
       </c>
-      <c r="C151" t="s">
-        <v>43</v>
-      </c>
       <c r="D151" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E151">
         <v>1255.9064100000091</v>
@@ -10353,13 +10353,13 @@
         <v>2019</v>
       </c>
       <c r="B152" t="s">
+        <v>41</v>
+      </c>
+      <c r="C152" t="s">
         <v>42</v>
       </c>
-      <c r="C152" t="s">
-        <v>43</v>
-      </c>
       <c r="D152" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E152">
         <v>-349.03778999999076</v>
@@ -10418,13 +10418,13 @@
         <v>2019</v>
       </c>
       <c r="B153" t="s">
+        <v>41</v>
+      </c>
+      <c r="C153" t="s">
         <v>42</v>
       </c>
-      <c r="C153" t="s">
-        <v>43</v>
-      </c>
       <c r="D153" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E153">
         <v>2068.1704800000093</v>
@@ -10483,13 +10483,13 @@
         <v>2019</v>
       </c>
       <c r="B154" t="s">
+        <v>41</v>
+      </c>
+      <c r="C154" t="s">
         <v>42</v>
       </c>
-      <c r="C154" t="s">
-        <v>43</v>
-      </c>
       <c r="D154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E154">
         <v>-1610.47462</v>
@@ -10548,13 +10548,13 @@
         <v>2019</v>
       </c>
       <c r="B155" t="s">
+        <v>41</v>
+      </c>
+      <c r="C155" t="s">
         <v>42</v>
       </c>
-      <c r="C155" t="s">
-        <v>43</v>
-      </c>
       <c r="D155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E155">
         <v>3514.9437800000069</v>
@@ -10613,13 +10613,13 @@
         <v>2019</v>
       </c>
       <c r="B156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D156" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E156">
         <v>-1206.5528899999974</v>
@@ -10678,13 +10678,13 @@
         <v>2019</v>
       </c>
       <c r="B157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C157" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E157">
         <v>-671.03884999999923</v>
@@ -10743,13 +10743,13 @@
         <v>2019</v>
       </c>
       <c r="B158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E158">
         <v>1976.6794199999892</v>
@@ -10808,13 +10808,13 @@
         <v>2019</v>
       </c>
       <c r="B159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D159" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E159">
         <v>-1040.2222000000106</v>
@@ -10873,13 +10873,13 @@
         <v>2019</v>
       </c>
       <c r="B160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D160" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E160">
         <v>3183.2323099999867</v>
@@ -10938,13 +10938,13 @@
         <v>2019</v>
       </c>
       <c r="B161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E161">
         <v>-3054.20307</v>
@@ -11003,13 +11003,13 @@
         <v>2019</v>
       </c>
       <c r="B162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C162" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D162" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E162">
         <v>3854.2711599999861</v>
@@ -11068,13 +11068,13 @@
         <v>2020</v>
       </c>
       <c r="B163" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" t="s">
         <v>21</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>22</v>
-      </c>
-      <c r="D163" t="s">
-        <v>23</v>
       </c>
       <c r="E163">
         <v>-14.590620000000056</v>
@@ -11133,13 +11133,13 @@
         <v>2020</v>
       </c>
       <c r="B164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" t="s">
         <v>21</v>
       </c>
-      <c r="C164" t="s">
-        <v>22</v>
-      </c>
       <c r="D164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E164">
         <v>-16.278470000000002</v>
@@ -11198,13 +11198,13 @@
         <v>2020</v>
       </c>
       <c r="B165" t="s">
+        <v>20</v>
+      </c>
+      <c r="C165" t="s">
         <v>21</v>
       </c>
-      <c r="C165" t="s">
-        <v>22</v>
-      </c>
       <c r="D165" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E165">
         <v>15.859899999999895</v>
@@ -11263,13 +11263,13 @@
         <v>2020</v>
       </c>
       <c r="B166" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" t="s">
         <v>21</v>
       </c>
-      <c r="C166" t="s">
-        <v>22</v>
-      </c>
       <c r="D166" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E166">
         <v>-43.329790000000102</v>
@@ -11328,13 +11328,13 @@
         <v>2020</v>
       </c>
       <c r="B167" t="s">
+        <v>20</v>
+      </c>
+      <c r="C167" t="s">
         <v>21</v>
       </c>
-      <c r="C167" t="s">
-        <v>22</v>
-      </c>
       <c r="D167" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E167">
         <v>30.450519999999951</v>
@@ -11393,13 +11393,13 @@
         <v>2020</v>
       </c>
       <c r="B168" t="s">
+        <v>20</v>
+      </c>
+      <c r="C168" t="s">
         <v>21</v>
       </c>
-      <c r="C168" t="s">
-        <v>22</v>
-      </c>
       <c r="D168" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E168">
         <v>-59.189689999999999</v>
@@ -11458,13 +11458,13 @@
         <v>2020</v>
       </c>
       <c r="B169" t="s">
+        <v>20</v>
+      </c>
+      <c r="C169" t="s">
         <v>21</v>
       </c>
-      <c r="C169" t="s">
-        <v>22</v>
-      </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E169">
         <v>46.728989999999953</v>
@@ -11523,13 +11523,13 @@
         <v>2020</v>
       </c>
       <c r="B170" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -11588,13 +11588,13 @@
         <v>2020</v>
       </c>
       <c r="B171" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C171" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -11653,13 +11653,13 @@
         <v>2020</v>
       </c>
       <c r="B172" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D172" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -11718,13 +11718,13 @@
         <v>2020</v>
       </c>
       <c r="B173" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D173" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -11783,13 +11783,13 @@
         <v>2020</v>
       </c>
       <c r="B174" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D174" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -11848,13 +11848,13 @@
         <v>2020</v>
       </c>
       <c r="B175" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -11913,13 +11913,13 @@
         <v>2020</v>
       </c>
       <c r="B176" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D176" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -11978,13 +11978,13 @@
         <v>2020</v>
       </c>
       <c r="B177" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D177" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E177">
         <v>-3542.3251100000048</v>
@@ -12043,13 +12043,13 @@
         <v>2020</v>
       </c>
       <c r="B178" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C178" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D178" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E178">
         <v>-6219.7791099999922</v>
@@ -12108,13 +12108,13 @@
         <v>2020</v>
       </c>
       <c r="B179" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E179">
         <v>3586.0731299999975</v>
@@ -12173,13 +12173,13 @@
         <v>2020</v>
       </c>
       <c r="B180" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D180" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E180">
         <v>-1567.6658400000024</v>
@@ -12238,13 +12238,13 @@
         <v>2020</v>
       </c>
       <c r="B181" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D181" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E181">
         <v>7128.3982400000023</v>
@@ -12303,13 +12303,13 @@
         <v>2020</v>
       </c>
       <c r="B182" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E182">
         <v>-5157.68797</v>
@@ -12368,13 +12368,13 @@
         <v>2020</v>
       </c>
       <c r="B183" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C183" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D183" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E183">
         <v>13348.177349999994</v>
@@ -12433,13 +12433,13 @@
         <v>2020</v>
       </c>
       <c r="B184" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D184" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E184">
         <v>-1219.3315399999994</v>
@@ -12498,13 +12498,13 @@
         <v>2020</v>
       </c>
       <c r="B185" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E185">
         <v>-1159.6785100000004</v>
@@ -12563,13 +12563,13 @@
         <v>2020</v>
       </c>
       <c r="B186" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D186" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E186">
         <v>1986.1856799999994</v>
@@ -12628,13 +12628,13 @@
         <v>2020</v>
       </c>
       <c r="B187" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D187" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E187">
         <v>831.80803999999921</v>
@@ -12693,13 +12693,13 @@
         <v>2020</v>
       </c>
       <c r="B188" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D188" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E188">
         <v>3205.5172199999988</v>
@@ -12758,13 +12758,13 @@
         <v>2020</v>
       </c>
       <c r="B189" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C189" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E189">
         <v>-1193.4861300000002</v>
@@ -12823,13 +12823,13 @@
         <v>2020</v>
       </c>
       <c r="B190" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D190" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E190">
         <v>4365.1957299999995</v>
@@ -12888,13 +12888,13 @@
         <v>2020</v>
       </c>
       <c r="B191" t="s">
+        <v>32</v>
+      </c>
+      <c r="C191" t="s">
         <v>33</v>
       </c>
-      <c r="C191" t="s">
-        <v>34</v>
-      </c>
       <c r="D191" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E191">
         <v>-6359.9671100000023</v>
@@ -12953,13 +12953,13 @@
         <v>2020</v>
       </c>
       <c r="B192" t="s">
+        <v>32</v>
+      </c>
+      <c r="C192" t="s">
         <v>33</v>
       </c>
-      <c r="C192" t="s">
-        <v>34</v>
-      </c>
       <c r="D192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E192">
         <v>-8052.530319999998</v>
@@ -13018,13 +13018,13 @@
         <v>2020</v>
       </c>
       <c r="B193" t="s">
+        <v>32</v>
+      </c>
+      <c r="C193" t="s">
         <v>33</v>
       </c>
-      <c r="C193" t="s">
-        <v>34</v>
-      </c>
       <c r="D193" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E193">
         <v>8917.7550999999912</v>
@@ -13083,13 +13083,13 @@
         <v>2020</v>
       </c>
       <c r="B194" t="s">
+        <v>32</v>
+      </c>
+      <c r="C194" t="s">
         <v>33</v>
       </c>
-      <c r="C194" t="s">
-        <v>34</v>
-      </c>
       <c r="D194" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E194">
         <v>1549.6984399999919</v>
@@ -13148,13 +13148,13 @@
         <v>2020</v>
       </c>
       <c r="B195" t="s">
+        <v>32</v>
+      </c>
+      <c r="C195" t="s">
         <v>33</v>
       </c>
-      <c r="C195" t="s">
-        <v>34</v>
-      </c>
       <c r="D195" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E195">
         <v>15277.722209999993</v>
@@ -13213,13 +13213,13 @@
         <v>2020</v>
       </c>
       <c r="B196" t="s">
+        <v>32</v>
+      </c>
+      <c r="C196" t="s">
         <v>33</v>
       </c>
-      <c r="C196" t="s">
-        <v>34</v>
-      </c>
       <c r="D196" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E196">
         <v>-7725.371259999999</v>
@@ -13278,13 +13278,13 @@
         <v>2020</v>
       </c>
       <c r="B197" t="s">
+        <v>32</v>
+      </c>
+      <c r="C197" t="s">
         <v>33</v>
       </c>
-      <c r="C197" t="s">
-        <v>34</v>
-      </c>
       <c r="D197" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E197">
         <v>23330.252529999991</v>
@@ -13343,13 +13343,13 @@
         <v>2020</v>
       </c>
       <c r="B198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D198" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -13408,13 +13408,13 @@
         <v>2020</v>
       </c>
       <c r="B199" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D199" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -13473,13 +13473,13 @@
         <v>2020</v>
       </c>
       <c r="B200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -13538,13 +13538,13 @@
         <v>2020</v>
       </c>
       <c r="B201" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D201" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -13603,13 +13603,13 @@
         <v>2020</v>
       </c>
       <c r="B202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D202" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -13668,13 +13668,13 @@
         <v>2020</v>
       </c>
       <c r="B203" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D203" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -13733,13 +13733,13 @@
         <v>2020</v>
       </c>
       <c r="B204" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -13798,13 +13798,13 @@
         <v>2020</v>
       </c>
       <c r="B205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D205" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -13863,13 +13863,13 @@
         <v>2020</v>
       </c>
       <c r="B206" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D206" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -13928,13 +13928,13 @@
         <v>2020</v>
       </c>
       <c r="B207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D207" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -13993,13 +13993,13 @@
         <v>2020</v>
       </c>
       <c r="B208" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D208" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -14058,13 +14058,13 @@
         <v>2020</v>
       </c>
       <c r="B209" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C209" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D209" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -14123,13 +14123,13 @@
         <v>2020</v>
       </c>
       <c r="B210" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C210" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D210" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -14188,13 +14188,13 @@
         <v>2020</v>
       </c>
       <c r="B211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D211" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -14253,13 +14253,13 @@
         <v>2020</v>
       </c>
       <c r="B212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C212" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D212" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -14318,13 +14318,13 @@
         <v>2020</v>
       </c>
       <c r="B213" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C213" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D213" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -14383,13 +14383,13 @@
         <v>2020</v>
       </c>
       <c r="B214" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C214" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D214" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -14448,13 +14448,13 @@
         <v>2020</v>
       </c>
       <c r="B215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C215" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D215" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -14513,13 +14513,13 @@
         <v>2020</v>
       </c>
       <c r="B216" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C216" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D216" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -14578,13 +14578,13 @@
         <v>2020</v>
       </c>
       <c r="B217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C217" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -14643,13 +14643,13 @@
         <v>2020</v>
       </c>
       <c r="B218" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C218" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D218" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -14708,13 +14708,13 @@
         <v>2020</v>
       </c>
       <c r="B219" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C219" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D219" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E219">
         <v>-10.06259</v>
@@ -14773,13 +14773,13 @@
         <v>2020</v>
       </c>
       <c r="B220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C220" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D220" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E220">
         <v>-30.717759999999998</v>
@@ -14838,13 +14838,13 @@
         <v>2020</v>
       </c>
       <c r="B221" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C221" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D221" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E221">
         <v>-4.4439199999999985</v>
@@ -14903,13 +14903,13 @@
         <v>2020</v>
       </c>
       <c r="B222" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C222" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D222" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E222">
         <v>-42.600430000000003</v>
@@ -14968,13 +14968,13 @@
         <v>2020</v>
       </c>
       <c r="B223" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C223" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D223" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E223">
         <v>5.6186700000000016</v>
@@ -15033,13 +15033,13 @@
         <v>2020</v>
       </c>
       <c r="B224" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C224" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E224">
         <v>-38.156510000000004</v>
@@ -15098,13 +15098,13 @@
         <v>2020</v>
       </c>
       <c r="B225" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C225" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D225" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E225">
         <v>36.33643</v>
@@ -15163,13 +15163,13 @@
         <v>2020</v>
       </c>
       <c r="B226" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C226" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D226" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E226">
         <v>-721.27298000000019</v>
@@ -15228,13 +15228,13 @@
         <v>2020</v>
       </c>
       <c r="B227" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C227" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D227" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E227">
         <v>-1097.6452100000001</v>
@@ -15293,13 +15293,13 @@
         <v>2020</v>
       </c>
       <c r="B228" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C228" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D228" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E228">
         <v>850.40886999999975</v>
@@ -15358,13 +15358,13 @@
         <v>2020</v>
       </c>
       <c r="B229" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C229" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E229">
         <v>145.98671999999991</v>
@@ -15423,13 +15423,13 @@
         <v>2020</v>
       </c>
       <c r="B230" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C230" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D230" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E230">
         <v>1571.6818499999999</v>
@@ -15488,13 +15488,13 @@
         <v>2020</v>
       </c>
       <c r="B231" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C231" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D231" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E231">
         <v>-704.46714999999983</v>
@@ -15553,13 +15553,13 @@
         <v>2020</v>
       </c>
       <c r="B232" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C232" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D232" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E232">
         <v>2669.3270600000001</v>
@@ -15618,13 +15618,13 @@
         <v>2020</v>
       </c>
       <c r="B233" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C233" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D233" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E233">
         <v>-115.3817</v>
@@ -15683,13 +15683,13 @@
         <v>2020</v>
       </c>
       <c r="B234" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C234" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D234" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E234">
         <v>-108.19653</v>
@@ -15748,13 +15748,13 @@
         <v>2020</v>
       </c>
       <c r="B235" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C235" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D235" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E235">
         <v>186.95439999999994</v>
@@ -15813,13 +15813,13 @@
         <v>2020</v>
       </c>
       <c r="B236" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C236" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D236" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E236">
         <v>-138.63438000000008</v>
@@ -15878,13 +15878,13 @@
         <v>2020</v>
       </c>
       <c r="B237" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C237" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D237" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E237">
         <v>302.33609999999993</v>
@@ -15943,13 +15943,13 @@
         <v>2020</v>
       </c>
       <c r="B238" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C238" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D238" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E238">
         <v>-343.62574000000001</v>
@@ -16008,13 +16008,13 @@
         <v>2020</v>
       </c>
       <c r="B239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C239" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D239" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E239">
         <v>410.53262999999993</v>
@@ -16073,13 +16073,13 @@
         <v>2020</v>
       </c>
       <c r="B240" t="s">
+        <v>41</v>
+      </c>
+      <c r="C240" t="s">
         <v>42</v>
       </c>
-      <c r="C240" t="s">
-        <v>43</v>
-      </c>
       <c r="D240" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E240">
         <v>-771.86775999999986</v>
@@ -16138,13 +16138,13 @@
         <v>2020</v>
       </c>
       <c r="B241" t="s">
+        <v>41</v>
+      </c>
+      <c r="C241" t="s">
         <v>42</v>
       </c>
-      <c r="C241" t="s">
-        <v>43</v>
-      </c>
       <c r="D241" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E241">
         <v>-1423.7626999999993</v>
@@ -16203,13 +16203,13 @@
         <v>2020</v>
       </c>
       <c r="B242" t="s">
+        <v>41</v>
+      </c>
+      <c r="C242" t="s">
         <v>42</v>
       </c>
-      <c r="C242" t="s">
-        <v>43</v>
-      </c>
       <c r="D242" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E242">
         <v>808.81823000000281</v>
@@ -16268,13 +16268,13 @@
         <v>2020</v>
       </c>
       <c r="B243" t="s">
+        <v>41</v>
+      </c>
+      <c r="C243" t="s">
         <v>42</v>
       </c>
-      <c r="C243" t="s">
-        <v>43</v>
-      </c>
       <c r="D243" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E243">
         <v>-661.38848999999686</v>
@@ -16333,13 +16333,13 @@
         <v>2020</v>
       </c>
       <c r="B244" t="s">
+        <v>41</v>
+      </c>
+      <c r="C244" t="s">
         <v>42</v>
       </c>
-      <c r="C244" t="s">
-        <v>43</v>
-      </c>
       <c r="D244" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E244">
         <v>1580.6859900000027</v>
@@ -16398,13 +16398,13 @@
         <v>2020</v>
       </c>
       <c r="B245" t="s">
+        <v>41</v>
+      </c>
+      <c r="C245" t="s">
         <v>42</v>
       </c>
-      <c r="C245" t="s">
-        <v>43</v>
-      </c>
       <c r="D245" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E245">
         <v>-1502.2957299999996</v>
@@ -16463,13 +16463,13 @@
         <v>2020</v>
       </c>
       <c r="B246" t="s">
+        <v>41</v>
+      </c>
+      <c r="C246" t="s">
         <v>42</v>
       </c>
-      <c r="C246" t="s">
-        <v>43</v>
-      </c>
       <c r="D246" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E246">
         <v>3004.448690000002</v>
@@ -16528,13 +16528,13 @@
         <v>2020</v>
       </c>
       <c r="B247" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C247" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D247" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E247">
         <v>-2220.2044100000007</v>
@@ -16593,13 +16593,13 @@
         <v>2020</v>
       </c>
       <c r="B248" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C248" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D248" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E248">
         <v>-2848.4056100000016</v>
@@ -16658,13 +16658,13 @@
         <v>2020</v>
       </c>
       <c r="B249" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C249" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D249" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E249">
         <v>2477.1467199999902</v>
@@ -16723,13 +16723,13 @@
         <v>2020</v>
       </c>
       <c r="B250" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C250" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D250" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E250">
         <v>-1230.2687000000099</v>
@@ -16788,13 +16788,13 @@
         <v>2020</v>
       </c>
       <c r="B251" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C251" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D251" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E251">
         <v>4697.3511299999909</v>
@@ -16853,13 +16853,13 @@
         <v>2020</v>
       </c>
       <c r="B252" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C252" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D252" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E252">
         <v>-3708.2422799999999</v>
@@ -16918,13 +16918,13 @@
         <v>2020</v>
       </c>
       <c r="B253" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C253" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D253" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E253">
         <v>7545.7567399999925</v>
@@ -16983,13 +16983,13 @@
         <v>2021</v>
       </c>
       <c r="B254" t="s">
+        <v>20</v>
+      </c>
+      <c r="C254" t="s">
         <v>21</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>22</v>
-      </c>
-      <c r="D254" t="s">
-        <v>23</v>
       </c>
       <c r="E254">
         <v>-54.292570000000012</v>
@@ -17048,13 +17048,13 @@
         <v>2021</v>
       </c>
       <c r="B255" t="s">
+        <v>20</v>
+      </c>
+      <c r="C255" t="s">
         <v>21</v>
       </c>
-      <c r="C255" t="s">
-        <v>22</v>
-      </c>
       <c r="D255" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E255">
         <v>-28.733180000000019</v>
@@ -17113,13 +17113,13 @@
         <v>2021</v>
       </c>
       <c r="B256" t="s">
+        <v>20</v>
+      </c>
+      <c r="C256" t="s">
         <v>21</v>
       </c>
-      <c r="C256" t="s">
-        <v>22</v>
-      </c>
       <c r="D256" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E256">
         <v>84.824749999999881</v>
@@ -17178,13 +17178,13 @@
         <v>2021</v>
       </c>
       <c r="B257" t="s">
+        <v>20</v>
+      </c>
+      <c r="C257" t="s">
         <v>21</v>
       </c>
-      <c r="C257" t="s">
-        <v>22</v>
-      </c>
       <c r="D257" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E257">
         <v>26.93298999999989</v>
@@ -17243,13 +17243,13 @@
         <v>2021</v>
       </c>
       <c r="B258" t="s">
+        <v>20</v>
+      </c>
+      <c r="C258" t="s">
         <v>21</v>
       </c>
-      <c r="C258" t="s">
-        <v>22</v>
-      </c>
       <c r="D258" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E258">
         <v>139.11731999999989</v>
@@ -17308,13 +17308,13 @@
         <v>2021</v>
       </c>
       <c r="B259" t="s">
+        <v>20</v>
+      </c>
+      <c r="C259" t="s">
         <v>21</v>
       </c>
-      <c r="C259" t="s">
-        <v>22</v>
-      </c>
       <c r="D259" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E259">
         <v>-57.891759999999991</v>
@@ -17373,13 +17373,13 @@
         <v>2021</v>
       </c>
       <c r="B260" t="s">
+        <v>20</v>
+      </c>
+      <c r="C260" t="s">
         <v>21</v>
       </c>
-      <c r="C260" t="s">
-        <v>22</v>
-      </c>
       <c r="D260" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E260">
         <v>167.85049999999993</v>
@@ -17438,13 +17438,13 @@
         <v>2021</v>
       </c>
       <c r="B261" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C261" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D261" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -17503,13 +17503,13 @@
         <v>2021</v>
       </c>
       <c r="B262" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C262" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D262" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -17568,13 +17568,13 @@
         <v>2021</v>
       </c>
       <c r="B263" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C263" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D263" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -17633,13 +17633,13 @@
         <v>2021</v>
       </c>
       <c r="B264" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C264" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D264" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -17698,13 +17698,13 @@
         <v>2021</v>
       </c>
       <c r="B265" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C265" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D265" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -17763,13 +17763,13 @@
         <v>2021</v>
       </c>
       <c r="B266" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C266" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D266" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -17828,13 +17828,13 @@
         <v>2021</v>
       </c>
       <c r="B267" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C267" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D267" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -17893,13 +17893,13 @@
         <v>2021</v>
       </c>
       <c r="B268" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C268" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D268" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E268">
         <v>-1639.1553799999995</v>
@@ -17958,13 +17958,13 @@
         <v>2021</v>
       </c>
       <c r="B269" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C269" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D269" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E269">
         <v>-2896.6693299999988</v>
@@ -18023,13 +18023,13 @@
         <v>2021</v>
       </c>
       <c r="B270" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C270" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D270" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E270">
         <v>1521.5490899999966</v>
@@ -18088,13 +18088,13 @@
         <v>2021</v>
       </c>
       <c r="B271" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C271" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D271" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E271">
         <v>-1163.4040700000032</v>
@@ -18153,13 +18153,13 @@
         <v>2021</v>
       </c>
       <c r="B272" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C272" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D272" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E272">
         <v>3160.704469999996</v>
@@ -18218,13 +18218,13 @@
         <v>2021</v>
       </c>
       <c r="B273" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C273" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D273" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E273">
         <v>-2693.9351699999997</v>
@@ -18283,13 +18283,13 @@
         <v>2021</v>
       </c>
       <c r="B274" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C274" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D274" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E274">
         <v>6057.3737999999948</v>
@@ -18348,13 +18348,13 @@
         <v>2021</v>
       </c>
       <c r="B275" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C275" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D275" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E275">
         <v>-905.67388000000005</v>
@@ -18413,13 +18413,13 @@
         <v>2021</v>
       </c>
       <c r="B276" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C276" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D276" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E276">
         <v>-763.2749300000014</v>
@@ -18478,13 +18478,13 @@
         <v>2021</v>
       </c>
       <c r="B277" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C277" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D277" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E277">
         <v>1251.3130199999976</v>
@@ -18543,13 +18543,13 @@
         <v>2021</v>
       </c>
       <c r="B278" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C278" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D278" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E278">
         <v>-374.96097000000242</v>
@@ -18608,13 +18608,13 @@
         <v>2021</v>
       </c>
       <c r="B279" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C279" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D279" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E279">
         <v>2156.9868999999976</v>
@@ -18673,13 +18673,13 @@
         <v>2021</v>
       </c>
       <c r="B280" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C280" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D280" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E280">
         <v>-1665.2974299999998</v>
@@ -18738,13 +18738,13 @@
         <v>2021</v>
       </c>
       <c r="B281" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C281" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D281" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E281">
         <v>2920.261829999999</v>
@@ -18803,13 +18803,13 @@
         <v>2021</v>
       </c>
       <c r="B282" t="s">
+        <v>32</v>
+      </c>
+      <c r="C282" t="s">
         <v>33</v>
       </c>
-      <c r="C282" t="s">
-        <v>34</v>
-      </c>
       <c r="D282" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E282">
         <v>-838.93260000000055</v>
@@ -18868,13 +18868,13 @@
         <v>2021</v>
       </c>
       <c r="B283" t="s">
+        <v>32</v>
+      </c>
+      <c r="C283" t="s">
         <v>33</v>
       </c>
-      <c r="C283" t="s">
-        <v>34</v>
-      </c>
       <c r="D283" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E283">
         <v>-1469.35268</v>
@@ -18933,13 +18933,13 @@
         <v>2021</v>
       </c>
       <c r="B284" t="s">
+        <v>32</v>
+      </c>
+      <c r="C284" t="s">
         <v>33</v>
       </c>
-      <c r="C284" t="s">
-        <v>34</v>
-      </c>
       <c r="D284" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E284">
         <v>743.39676999999801</v>
@@ -18998,13 +18998,13 @@
         <v>2021</v>
       </c>
       <c r="B285" t="s">
+        <v>32</v>
+      </c>
+      <c r="C285" t="s">
         <v>33</v>
       </c>
-      <c r="C285" t="s">
-        <v>34</v>
-      </c>
       <c r="D285" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E285">
         <v>-2006.9677300000021</v>
@@ -19063,13 +19063,13 @@
         <v>2021</v>
       </c>
       <c r="B286" t="s">
+        <v>32</v>
+      </c>
+      <c r="C286" t="s">
         <v>33</v>
       </c>
-      <c r="C286" t="s">
-        <v>34</v>
-      </c>
       <c r="D286" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E286">
         <v>1582.3293699999986</v>
@@ -19128,13 +19128,13 @@
         <v>2021</v>
       </c>
       <c r="B287" t="s">
+        <v>32</v>
+      </c>
+      <c r="C287" t="s">
         <v>33</v>
       </c>
-      <c r="C287" t="s">
-        <v>34</v>
-      </c>
       <c r="D287" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E287">
         <v>-2758.7123200000001</v>
@@ -19193,13 +19193,13 @@
         <v>2021</v>
       </c>
       <c r="B288" t="s">
+        <v>32</v>
+      </c>
+      <c r="C288" t="s">
         <v>33</v>
       </c>
-      <c r="C288" t="s">
-        <v>34</v>
-      </c>
       <c r="D288" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E288">
         <v>3051.6820499999985</v>
@@ -19258,13 +19258,13 @@
         <v>2021</v>
       </c>
       <c r="B289" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C289" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D289" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -19323,13 +19323,13 @@
         <v>2021</v>
       </c>
       <c r="B290" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C290" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D290" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -19388,13 +19388,13 @@
         <v>2021</v>
       </c>
       <c r="B291" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C291" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D291" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -19453,13 +19453,13 @@
         <v>2021</v>
       </c>
       <c r="B292" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C292" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D292" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -19518,13 +19518,13 @@
         <v>2021</v>
       </c>
       <c r="B293" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C293" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D293" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -19583,13 +19583,13 @@
         <v>2021</v>
       </c>
       <c r="B294" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C294" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D294" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -19648,13 +19648,13 @@
         <v>2021</v>
       </c>
       <c r="B295" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C295" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D295" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -19713,13 +19713,13 @@
         <v>2021</v>
       </c>
       <c r="B296" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C296" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D296" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -19778,13 +19778,13 @@
         <v>2021</v>
       </c>
       <c r="B297" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C297" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D297" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -19843,13 +19843,13 @@
         <v>2021</v>
       </c>
       <c r="B298" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C298" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D298" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -19908,13 +19908,13 @@
         <v>2021</v>
       </c>
       <c r="B299" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C299" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D299" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -19973,13 +19973,13 @@
         <v>2021</v>
       </c>
       <c r="B300" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C300" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D300" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -20038,13 +20038,13 @@
         <v>2021</v>
       </c>
       <c r="B301" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C301" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D301" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -20103,13 +20103,13 @@
         <v>2021</v>
       </c>
       <c r="B302" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C302" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D302" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -20168,13 +20168,13 @@
         <v>2021</v>
       </c>
       <c r="B303" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C303" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D303" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E303">
         <v>-2378.6850999999997</v>
@@ -20233,13 +20233,13 @@
         <v>2021</v>
       </c>
       <c r="B304" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C304" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D304" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E304">
         <v>-11.572419999999996</v>
@@ -20298,13 +20298,13 @@
         <v>2021</v>
       </c>
       <c r="B305" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C305" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D305" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E305">
         <v>964.96213000000398</v>
@@ -20363,13 +20363,13 @@
         <v>2021</v>
       </c>
       <c r="B306" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C306" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D306" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E306">
         <v>744.81101000000399</v>
@@ -20428,13 +20428,13 @@
         <v>2021</v>
       </c>
       <c r="B307" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C307" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D307" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E307">
         <v>3343.6472300000037</v>
@@ -20493,13 +20493,13 @@
         <v>2021</v>
       </c>
       <c r="B308" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C308" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D308" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E308">
         <v>-220.15112000000005</v>
@@ -20558,13 +20558,13 @@
         <v>2021</v>
       </c>
       <c r="B309" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C309" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D309" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E309">
         <v>3355.2196500000036</v>
@@ -20623,13 +20623,13 @@
         <v>2021</v>
       </c>
       <c r="B310" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C310" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D310" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -20688,13 +20688,13 @@
         <v>2021</v>
       </c>
       <c r="B311" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C311" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D311" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -20753,13 +20753,13 @@
         <v>2021</v>
       </c>
       <c r="B312" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C312" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D312" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -20818,13 +20818,13 @@
         <v>2021</v>
       </c>
       <c r="B313" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C313" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D313" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E313">
         <v>-0.41295999999999994</v>
@@ -20883,13 +20883,13 @@
         <v>2021</v>
       </c>
       <c r="B314" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C314" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D314" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -20948,13 +20948,13 @@
         <v>2021</v>
       </c>
       <c r="B315" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C315" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D315" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E315">
         <v>-0.41295999999999994</v>
@@ -21013,13 +21013,13 @@
         <v>2021</v>
       </c>
       <c r="B316" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C316" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D316" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -21078,13 +21078,13 @@
         <v>2021</v>
       </c>
       <c r="B317" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C317" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D317" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E317">
         <v>-236.55570999999981</v>
@@ -21143,13 +21143,13 @@
         <v>2021</v>
       </c>
       <c r="B318" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C318" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D318" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E318">
         <v>-265.28028</v>
@@ -21208,13 +21208,13 @@
         <v>2021</v>
       </c>
       <c r="B319" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C319" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D319" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E319">
         <v>375.34162000000066</v>
@@ -21273,13 +21273,13 @@
         <v>2021</v>
       </c>
       <c r="B320" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C320" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D320" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E320">
         <v>-298.04758999999939</v>
@@ -21338,13 +21338,13 @@
         <v>2021</v>
       </c>
       <c r="B321" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C321" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D321" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E321">
         <v>611.89733000000047</v>
@@ -21403,13 +21403,13 @@
         <v>2021</v>
       </c>
       <c r="B322" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C322" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D322" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E322">
         <v>-679.45271000000002</v>
@@ -21468,13 +21468,13 @@
         <v>2021</v>
       </c>
       <c r="B323" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C323" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D323" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E323">
         <v>877.17761000000053</v>
@@ -21533,13 +21533,13 @@
         <v>2021</v>
       </c>
       <c r="B324" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C324" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D324" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E324">
         <v>-131.85591000000008</v>
@@ -21598,13 +21598,13 @@
         <v>2021</v>
       </c>
       <c r="B325" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C325" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D325" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E325">
         <v>-153.31442999999999</v>
@@ -21663,13 +21663,13 @@
         <v>2021</v>
       </c>
       <c r="B326" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C326" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D326" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E326">
         <v>311.82027999999968</v>
@@ -21728,13 +21728,13 @@
         <v>2021</v>
       </c>
       <c r="B327" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C327" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D327" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E327">
         <v>-133.85298000000031</v>
@@ -21793,13 +21793,13 @@
         <v>2021</v>
       </c>
       <c r="B328" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C328" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D328" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E328">
         <v>443.67618999999979</v>
@@ -21858,13 +21858,13 @@
         <v>2021</v>
       </c>
       <c r="B329" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C329" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D329" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E329">
         <v>-445.29327000000001</v>
@@ -21923,13 +21923,13 @@
         <v>2021</v>
       </c>
       <c r="B330" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C330" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D330" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E330">
         <v>596.99061999999981</v>
@@ -21988,13 +21988,13 @@
         <v>2021</v>
       </c>
       <c r="B331" t="s">
+        <v>41</v>
+      </c>
+      <c r="C331" t="s">
         <v>42</v>
       </c>
-      <c r="C331" t="s">
-        <v>43</v>
-      </c>
       <c r="D331" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E331">
         <v>-334.84552000000025</v>
@@ -22053,13 +22053,13 @@
         <v>2021</v>
       </c>
       <c r="B332" t="s">
+        <v>41</v>
+      </c>
+      <c r="C332" t="s">
         <v>42</v>
       </c>
-      <c r="C332" t="s">
-        <v>43</v>
-      </c>
       <c r="D332" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E332">
         <v>-468.64427000000006</v>
@@ -22118,13 +22118,13 @@
         <v>2021</v>
       </c>
       <c r="B333" t="s">
+        <v>41</v>
+      </c>
+      <c r="C333" t="s">
         <v>42</v>
       </c>
-      <c r="C333" t="s">
-        <v>43</v>
-      </c>
       <c r="D333" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E333">
         <v>482.90268999999995</v>
@@ -22183,13 +22183,13 @@
         <v>2021</v>
       </c>
       <c r="B334" t="s">
+        <v>41</v>
+      </c>
+      <c r="C334" t="s">
         <v>42</v>
       </c>
-      <c r="C334" t="s">
-        <v>43</v>
-      </c>
       <c r="D334" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E334">
         <v>-272.37945999999994</v>
@@ -22248,13 +22248,13 @@
         <v>2021</v>
       </c>
       <c r="B335" t="s">
+        <v>41</v>
+      </c>
+      <c r="C335" t="s">
         <v>42</v>
       </c>
-      <c r="C335" t="s">
-        <v>43</v>
-      </c>
       <c r="D335" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E335">
         <v>817.7482100000002</v>
@@ -22313,13 +22313,13 @@
         <v>2021</v>
       </c>
       <c r="B336" t="s">
+        <v>41</v>
+      </c>
+      <c r="C336" t="s">
         <v>42</v>
       </c>
-      <c r="C336" t="s">
-        <v>43</v>
-      </c>
       <c r="D336" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E336">
         <v>-766.57314999999983</v>
@@ -22378,13 +22378,13 @@
         <v>2021</v>
       </c>
       <c r="B337" t="s">
+        <v>41</v>
+      </c>
+      <c r="C337" t="s">
         <v>42</v>
       </c>
-      <c r="C337" t="s">
-        <v>43</v>
-      </c>
       <c r="D337" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E337">
         <v>1286.3924800000002</v>
@@ -22443,13 +22443,13 @@
         <v>2021</v>
       </c>
       <c r="B338" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C338" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D338" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E338">
         <v>-1005.3244299999994</v>
@@ -22508,13 +22508,13 @@
         <v>2021</v>
       </c>
       <c r="B339" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C339" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D339" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E339">
         <v>-1140.40311</v>
@@ -22573,13 +22573,13 @@
         <v>2021</v>
       </c>
       <c r="B340" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C340" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D340" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E340">
         <v>1485.131730000003</v>
@@ -22638,13 +22638,13 @@
         <v>2021</v>
       </c>
       <c r="B341" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C341" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D341" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E341">
         <v>-584.97053999999707</v>
@@ -22703,13 +22703,13 @@
         <v>2021</v>
       </c>
       <c r="B342" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C342" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D342" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E342">
         <v>2490.4561600000025</v>
@@ -22768,13 +22768,13 @@
         <v>2021</v>
       </c>
       <c r="B343" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C343" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D343" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E343">
         <v>-2074.5992900000001</v>
@@ -22833,13 +22833,13 @@
         <v>2021</v>
       </c>
       <c r="B344" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C344" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D344" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E344">
         <v>3630.8592700000022</v>
@@ -22898,13 +22898,13 @@
         <v>2022</v>
       </c>
       <c r="B345" t="s">
+        <v>20</v>
+      </c>
+      <c r="C345" t="s">
         <v>21</v>
       </c>
-      <c r="C345" t="s">
+      <c r="D345" t="s">
         <v>22</v>
-      </c>
-      <c r="D345" t="s">
-        <v>23</v>
       </c>
       <c r="E345">
         <v>-57.032339999999998</v>
@@ -22963,13 +22963,13 @@
         <v>2022</v>
       </c>
       <c r="B346" t="s">
+        <v>20</v>
+      </c>
+      <c r="C346" t="s">
         <v>21</v>
       </c>
-      <c r="C346" t="s">
-        <v>22</v>
-      </c>
       <c r="D346" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E346">
         <v>-51.908370000000012</v>
@@ -23028,13 +23028,13 @@
         <v>2022</v>
       </c>
       <c r="B347" t="s">
+        <v>20</v>
+      </c>
+      <c r="C347" t="s">
         <v>21</v>
       </c>
-      <c r="C347" t="s">
-        <v>22</v>
-      </c>
       <c r="D347" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E347">
         <v>64.236879999999928</v>
@@ -23093,13 +23093,13 @@
         <v>2022</v>
       </c>
       <c r="B348" t="s">
+        <v>20</v>
+      </c>
+      <c r="C348" t="s">
         <v>21</v>
       </c>
-      <c r="C348" t="s">
-        <v>22</v>
-      </c>
       <c r="D348" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E348">
         <v>-40.758690000000051</v>
@@ -23158,13 +23158,13 @@
         <v>2022</v>
       </c>
       <c r="B349" t="s">
+        <v>20</v>
+      </c>
+      <c r="C349" t="s">
         <v>21</v>
       </c>
-      <c r="C349" t="s">
-        <v>22</v>
-      </c>
       <c r="D349" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E349">
         <v>121.26921999999993</v>
@@ -23223,13 +23223,13 @@
         <v>2022</v>
       </c>
       <c r="B350" t="s">
+        <v>20</v>
+      </c>
+      <c r="C350" t="s">
         <v>21</v>
       </c>
-      <c r="C350" t="s">
-        <v>22</v>
-      </c>
       <c r="D350" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E350">
         <v>-104.99556999999999</v>
@@ -23288,13 +23288,13 @@
         <v>2022</v>
       </c>
       <c r="B351" t="s">
+        <v>20</v>
+      </c>
+      <c r="C351" t="s">
         <v>21</v>
       </c>
-      <c r="C351" t="s">
-        <v>22</v>
-      </c>
       <c r="D351" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E351">
         <v>173.17758999999995</v>
@@ -23353,13 +23353,13 @@
         <v>2022</v>
       </c>
       <c r="B352" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C352" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D352" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>2022</v>
       </c>
       <c r="B353" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C353" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D353" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -23483,13 +23483,13 @@
         <v>2022</v>
       </c>
       <c r="B354" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C354" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D354" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>2022</v>
       </c>
       <c r="B355" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C355" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D355" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -23613,13 +23613,13 @@
         <v>2022</v>
       </c>
       <c r="B356" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C356" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D356" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E356">
         <v>0</v>
@@ -23678,13 +23678,13 @@
         <v>2022</v>
       </c>
       <c r="B357" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C357" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D357" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E357">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>2022</v>
       </c>
       <c r="B358" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C358" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D358" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E358">
         <v>0</v>
@@ -23808,13 +23808,13 @@
         <v>2022</v>
       </c>
       <c r="B359" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C359" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D359" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E359">
         <v>-2157.1988499999957</v>
@@ -23873,13 +23873,13 @@
         <v>2022</v>
       </c>
       <c r="B360" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C360" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D360" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E360">
         <v>-4507.1062100000036</v>
@@ -23938,13 +23938,13 @@
         <v>2022</v>
       </c>
       <c r="B361" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C361" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D361" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E361">
         <v>1080.0401300000017</v>
@@ -24003,13 +24003,13 @@
         <v>2022</v>
       </c>
       <c r="B362" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C362" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D362" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E362">
         <v>-1135.5601899999988</v>
@@ -24068,13 +24068,13 @@
         <v>2022</v>
       </c>
       <c r="B363" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C363" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D363" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E363">
         <v>3237.2389799999974</v>
@@ -24133,13 +24133,13 @@
         <v>2022</v>
       </c>
       <c r="B364" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C364" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D364" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E364">
         <v>-2241.9580600000004</v>
@@ -24198,13 +24198,13 @@
         <v>2022</v>
       </c>
       <c r="B365" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C365" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D365" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E365">
         <v>7744.3451900000009</v>
@@ -24263,13 +24263,13 @@
         <v>2022</v>
       </c>
       <c r="B366" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C366" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D366" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E366">
         <v>-1331.3563699999986</v>
@@ -24328,13 +24328,13 @@
         <v>2022</v>
       </c>
       <c r="B367" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C367" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D367" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E367">
         <v>-1021.5003800000021</v>
@@ -24393,13 +24393,13 @@
         <v>2022</v>
       </c>
       <c r="B368" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C368" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D368" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E368">
         <v>2004.2837599999975</v>
@@ -24458,13 +24458,13 @@
         <v>2022</v>
       </c>
       <c r="B369" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C369" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D369" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E369">
         <v>329.71889999999763</v>
@@ -24523,13 +24523,13 @@
         <v>2022</v>
       </c>
       <c r="B370" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C370" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D370" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E370">
         <v>3335.6401299999961</v>
@@ -24588,13 +24588,13 @@
         <v>2022</v>
       </c>
       <c r="B371" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C371" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D371" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E371">
         <v>-1722.5772299999999</v>
@@ -24653,13 +24653,13 @@
         <v>2022</v>
       </c>
       <c r="B372" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C372" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D372" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E372">
         <v>4357.1405099999984</v>
@@ -24718,13 +24718,13 @@
         <v>2022</v>
       </c>
       <c r="B373" t="s">
+        <v>32</v>
+      </c>
+      <c r="C373" t="s">
         <v>33</v>
       </c>
-      <c r="C373" t="s">
-        <v>34</v>
-      </c>
       <c r="D373" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E373">
         <v>-1571.1869699999991</v>
@@ -24783,13 +24783,13 @@
         <v>2022</v>
       </c>
       <c r="B374" t="s">
+        <v>32</v>
+      </c>
+      <c r="C374" t="s">
         <v>33</v>
       </c>
-      <c r="C374" t="s">
-        <v>34</v>
-      </c>
       <c r="D374" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E374">
         <v>-2764.0913199999991</v>
@@ -24848,13 +24848,13 @@
         <v>2022</v>
       </c>
       <c r="B375" t="s">
+        <v>32</v>
+      </c>
+      <c r="C375" t="s">
         <v>33</v>
       </c>
-      <c r="C375" t="s">
-        <v>34</v>
-      </c>
       <c r="D375" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E375">
         <v>1422.216840000003</v>
@@ -24913,13 +24913,13 @@
         <v>2022</v>
       </c>
       <c r="B376" t="s">
+        <v>32</v>
+      </c>
+      <c r="C376" t="s">
         <v>33</v>
       </c>
-      <c r="C376" t="s">
-        <v>34</v>
-      </c>
       <c r="D376" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E376">
         <v>-972.64666999999713</v>
@@ -24978,13 +24978,13 @@
         <v>2022</v>
       </c>
       <c r="B377" t="s">
+        <v>32</v>
+      </c>
+      <c r="C377" t="s">
         <v>33</v>
       </c>
-      <c r="C377" t="s">
-        <v>34</v>
-      </c>
       <c r="D377" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E377">
         <v>2993.4038100000021</v>
@@ -25043,13 +25043,13 @@
         <v>2022</v>
       </c>
       <c r="B378" t="s">
+        <v>32</v>
+      </c>
+      <c r="C378" t="s">
         <v>33</v>
       </c>
-      <c r="C378" t="s">
-        <v>34</v>
-      </c>
       <c r="D378" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E378">
         <v>-2405.8818999999999</v>
@@ -25108,13 +25108,13 @@
         <v>2022</v>
       </c>
       <c r="B379" t="s">
+        <v>32</v>
+      </c>
+      <c r="C379" t="s">
         <v>33</v>
       </c>
-      <c r="C379" t="s">
-        <v>34</v>
-      </c>
       <c r="D379" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E379">
         <v>5757.4951300000012</v>
@@ -25173,13 +25173,13 @@
         <v>2022</v>
       </c>
       <c r="B380" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C380" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D380" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E380">
         <v>-122.37085</v>
@@ -25238,13 +25238,13 @@
         <v>2022</v>
       </c>
       <c r="B381" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C381" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D381" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E381">
         <v>-20.254399999999997</v>
@@ -25303,13 +25303,13 @@
         <v>2022</v>
       </c>
       <c r="B382" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C382" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D382" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E382">
         <v>122.72985999999996</v>
@@ -25368,13 +25368,13 @@
         <v>2022</v>
       </c>
       <c r="B383" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C383" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D383" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E383">
         <v>-167.04098999999999</v>
@@ -25433,13 +25433,13 @@
         <v>2022</v>
       </c>
       <c r="B384" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C384" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D384" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E384">
         <v>245.10070999999996</v>
@@ -25498,13 +25498,13 @@
         <v>2022</v>
       </c>
       <c r="B385" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C385" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D385" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E385">
         <v>-290.86523999999997</v>
@@ -25563,13 +25563,13 @@
         <v>2022</v>
       </c>
       <c r="B386" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C386" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D386" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E386">
         <v>265.35510999999997</v>
@@ -25628,13 +25628,13 @@
         <v>2022</v>
       </c>
       <c r="B387" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C387" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D387" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E387">
         <v>-1122.8630000000001</v>
@@ -25693,13 +25693,13 @@
         <v>2022</v>
       </c>
       <c r="B388" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C388" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D388" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E388">
         <v>-105.16322</v>
@@ -25758,13 +25758,13 @@
         <v>2022</v>
       </c>
       <c r="B389" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C389" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D389" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E389">
         <v>442.02515000000062</v>
@@ -25823,13 +25823,13 @@
         <v>2022</v>
       </c>
       <c r="B390" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C390" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D390" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E390">
         <v>160.27591000000064</v>
@@ -25888,13 +25888,13 @@
         <v>2022</v>
       </c>
       <c r="B391" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C391" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D391" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E391">
         <v>1564.8881500000007</v>
@@ -25953,13 +25953,13 @@
         <v>2022</v>
       </c>
       <c r="B392" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C392" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D392" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E392">
         <v>-281.74923999999999</v>
@@ -26018,13 +26018,13 @@
         <v>2022</v>
       </c>
       <c r="B393" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C393" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D393" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E393">
         <v>1670.0513700000006</v>
@@ -26083,13 +26083,13 @@
         <v>2022</v>
       </c>
       <c r="B394" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C394" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D394" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E394">
         <v>0</v>
@@ -26148,13 +26148,13 @@
         <v>2022</v>
       </c>
       <c r="B395" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C395" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D395" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E395">
         <v>0</v>
@@ -26213,13 +26213,13 @@
         <v>2022</v>
       </c>
       <c r="B396" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C396" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D396" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E396">
         <v>0</v>
@@ -26278,13 +26278,13 @@
         <v>2022</v>
       </c>
       <c r="B397" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C397" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D397" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E397">
         <v>0</v>
@@ -26343,13 +26343,13 @@
         <v>2022</v>
       </c>
       <c r="B398" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C398" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D398" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E398">
         <v>0</v>
@@ -26408,13 +26408,13 @@
         <v>2022</v>
       </c>
       <c r="B399" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C399" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D399" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E399">
         <v>0</v>
@@ -26473,13 +26473,13 @@
         <v>2022</v>
       </c>
       <c r="B400" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C400" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D400" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E400">
         <v>0</v>
@@ -26538,13 +26538,13 @@
         <v>2022</v>
       </c>
       <c r="B401" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C401" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D401" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E401">
         <v>-2732.5595799999987</v>
@@ -26603,13 +26603,13 @@
         <v>2022</v>
       </c>
       <c r="B402" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C402" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D402" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E402">
         <v>-176.86870000000005</v>
@@ -26668,13 +26668,13 @@
         <v>2022</v>
       </c>
       <c r="B403" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C403" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D403" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E403">
         <v>958.76794000000382</v>
@@ -26733,13 +26733,13 @@
         <v>2022</v>
       </c>
       <c r="B404" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C404" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D404" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E404">
         <v>347.02640000000383</v>
@@ -26798,13 +26798,13 @@
         <v>2022</v>
       </c>
       <c r="B405" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C405" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D405" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E405">
         <v>3691.3275200000026</v>
@@ -26863,13 +26863,13 @@
         <v>2022</v>
       </c>
       <c r="B406" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C406" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D406" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E406">
         <v>-626.08078999999998</v>
@@ -26928,13 +26928,13 @@
         <v>2022</v>
       </c>
       <c r="B407" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C407" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D407" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E407">
         <v>3868.1962200000025</v>
@@ -26993,13 +26993,13 @@
         <v>2022</v>
       </c>
       <c r="B408" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C408" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D408" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E408">
         <v>-307.59028999999998</v>
@@ -27058,13 +27058,13 @@
         <v>2022</v>
       </c>
       <c r="B409" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C409" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D409" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E409">
         <v>-69.702659999999995</v>
@@ -27123,13 +27123,13 @@
         <v>2022</v>
       </c>
       <c r="B410" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C410" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D410" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E410">
         <v>326.95019000000013</v>
@@ -27188,13 +27188,13 @@
         <v>2022</v>
       </c>
       <c r="B411" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C411" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D411" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E411">
         <v>71.325250000000139</v>
@@ -27253,13 +27253,13 @@
         <v>2022</v>
       </c>
       <c r="B412" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C412" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D412" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E412">
         <v>634.54048000000012</v>
@@ -27318,13 +27318,13 @@
         <v>2022</v>
       </c>
       <c r="B413" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C413" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D413" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E413">
         <v>-255.98943</v>
@@ -27383,13 +27383,13 @@
         <v>2022</v>
       </c>
       <c r="B414" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C414" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D414" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E414">
         <v>704.24314000000015</v>
@@ -27448,13 +27448,13 @@
         <v>2022</v>
       </c>
       <c r="B415" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C415" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D415" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E415">
         <v>-419.44359999999978</v>
@@ -27513,13 +27513,13 @@
         <v>2022</v>
       </c>
       <c r="B416" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C416" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D416" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E416">
         <v>-481.49585999999994</v>
@@ -27578,13 +27578,13 @@
         <v>2022</v>
       </c>
       <c r="B417" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C417" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D417" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E417">
         <v>614.30356000000074</v>
@@ -27643,13 +27643,13 @@
         <v>2022</v>
       </c>
       <c r="B418" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C418" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D418" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E418">
         <v>-226.41994999999926</v>
@@ -27708,13 +27708,13 @@
         <v>2022</v>
       </c>
       <c r="B419" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C419" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D419" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E419">
         <v>1033.7471600000006</v>
@@ -27773,13 +27773,13 @@
         <v>2022</v>
       </c>
       <c r="B420" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C420" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D420" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E420">
         <v>-842.51151000000004</v>
@@ -27838,13 +27838,13 @@
         <v>2022</v>
       </c>
       <c r="B421" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C421" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D421" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E421">
         <v>1515.2430200000006</v>
@@ -27903,13 +27903,13 @@
         <v>2022</v>
       </c>
       <c r="B422" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C422" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D422" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E422">
         <v>-552.81281000000013</v>
@@ -27968,13 +27968,13 @@
         <v>2022</v>
       </c>
       <c r="B423" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C423" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D423" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E423">
         <v>-440.00144</v>
@@ -28033,13 +28033,13 @@
         <v>2022</v>
       </c>
       <c r="B424" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C424" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D424" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E424">
         <v>807.61566000000062</v>
@@ -28098,13 +28098,13 @@
         <v>2022</v>
       </c>
       <c r="B425" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C425" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D425" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E425">
         <v>161.25044000000059</v>
@@ -28163,13 +28163,13 @@
         <v>2022</v>
       </c>
       <c r="B426" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C426" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D426" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E426">
         <v>1360.4284700000007</v>
@@ -28228,13 +28228,13 @@
         <v>2022</v>
       </c>
       <c r="B427" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C427" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D427" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E427">
         <v>-647.07363999999995</v>
@@ -28293,13 +28293,13 @@
         <v>2022</v>
       </c>
       <c r="B428" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C428" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D428" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E428">
         <v>1800.4299100000007</v>
@@ -28358,13 +28358,13 @@
         <v>2022</v>
       </c>
       <c r="B429" t="s">
+        <v>41</v>
+      </c>
+      <c r="C429" t="s">
         <v>42</v>
       </c>
-      <c r="C429" t="s">
-        <v>43</v>
-      </c>
       <c r="D429" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E429">
         <v>-701.5408899999984</v>
@@ -28423,13 +28423,13 @@
         <v>2022</v>
       </c>
       <c r="B430" t="s">
+        <v>41</v>
+      </c>
+      <c r="C430" t="s">
         <v>42</v>
       </c>
-      <c r="C430" t="s">
-        <v>43</v>
-      </c>
       <c r="D430" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E430">
         <v>-1014.7019199999993</v>
@@ -28488,13 +28488,13 @@
         <v>2022</v>
       </c>
       <c r="B431" t="s">
+        <v>41</v>
+      </c>
+      <c r="C431" t="s">
         <v>42</v>
       </c>
-      <c r="C431" t="s">
-        <v>43</v>
-      </c>
       <c r="D431" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E431">
         <v>857.28090000000589</v>
@@ -28553,13 +28553,13 @@
         <v>2022</v>
       </c>
       <c r="B432" t="s">
+        <v>41</v>
+      </c>
+      <c r="C432" t="s">
         <v>42</v>
       </c>
-      <c r="C432" t="s">
-        <v>43</v>
-      </c>
       <c r="D432" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E432">
         <v>-133.76463999999402</v>
@@ -28618,13 +28618,13 @@
         <v>2022</v>
       </c>
       <c r="B433" t="s">
+        <v>41</v>
+      </c>
+      <c r="C433" t="s">
         <v>42</v>
       </c>
-      <c r="C433" t="s">
-        <v>43</v>
-      </c>
       <c r="D433" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E433">
         <v>1558.8217900000043</v>
@@ -28683,13 +28683,13 @@
         <v>2022</v>
       </c>
       <c r="B434" t="s">
+        <v>41</v>
+      </c>
+      <c r="C434" t="s">
         <v>42</v>
       </c>
-      <c r="C434" t="s">
-        <v>43</v>
-      </c>
       <c r="D434" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E434">
         <v>-1001.9955099999999</v>
@@ -28748,13 +28748,13 @@
         <v>2022</v>
       </c>
       <c r="B435" t="s">
+        <v>41</v>
+      </c>
+      <c r="C435" t="s">
         <v>42</v>
       </c>
-      <c r="C435" t="s">
-        <v>43</v>
-      </c>
       <c r="D435" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E435">
         <v>2573.5237100000036</v>
@@ -28813,13 +28813,13 @@
         <v>2022</v>
       </c>
       <c r="B436" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C436" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D436" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E436">
         <v>-1554.2926199999997</v>
@@ -28878,13 +28878,13 @@
         <v>2022</v>
       </c>
       <c r="B437" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C437" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D437" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E437">
         <v>-1896.249350000001</v>
@@ -28943,13 +28943,13 @@
         <v>2022</v>
       </c>
       <c r="B438" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C438" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D438" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E438">
         <v>2188.4849900000149</v>
@@ -29008,13 +29008,13 @@
         <v>2022</v>
       </c>
       <c r="B439" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C439" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D439" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E439">
         <v>302.12585000001502</v>
@@ -29073,13 +29073,13 @@
         <v>2022</v>
       </c>
       <c r="B440" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C440" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D440" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E440">
         <v>3742.7776100000146</v>
@@ -29138,13 +29138,13 @@
         <v>2022</v>
       </c>
       <c r="B441" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C441" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D441" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E441">
         <v>-1911.3445199999999</v>
@@ -29203,13 +29203,13 @@
         <v>2022</v>
       </c>
       <c r="B442" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C442" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D442" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E442">
         <v>5639.0269600000156</v>
@@ -29265,16 +29265,16 @@
     </row>
     <row r="443" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B443" t="s">
+        <v>20</v>
+      </c>
+      <c r="C443" t="s">
         <v>21</v>
       </c>
-      <c r="C443" t="s">
+      <c r="D443" t="s">
         <v>22</v>
-      </c>
-      <c r="D443" t="s">
-        <v>23</v>
       </c>
       <c r="E443">
         <v>-126.07250755287009</v>
@@ -29330,16 +29330,16 @@
     </row>
     <row r="444" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B444" t="s">
+        <v>20</v>
+      </c>
+      <c r="C444" t="s">
         <v>21</v>
       </c>
-      <c r="C444" t="s">
-        <v>22</v>
-      </c>
       <c r="D444" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E444">
         <v>-83.3</v>
@@ -29395,16 +29395,16 @@
     </row>
     <row r="445" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B445" t="s">
+        <v>20</v>
+      </c>
+      <c r="C445" t="s">
         <v>21</v>
       </c>
-      <c r="C445" t="s">
-        <v>22</v>
-      </c>
       <c r="D445" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E445">
         <v>180.6274924471299</v>
@@ -29460,16 +29460,16 @@
     </row>
     <row r="446" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B446" t="s">
+        <v>20</v>
+      </c>
+      <c r="C446" t="s">
         <v>21</v>
       </c>
-      <c r="C446" t="s">
-        <v>22</v>
-      </c>
       <c r="D446" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E446">
         <v>1.67766502832509</v>
@@ -29525,16 +29525,16 @@
     </row>
     <row r="447" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B447" t="s">
+        <v>20</v>
+      </c>
+      <c r="C447" t="s">
         <v>21</v>
       </c>
-      <c r="C447" t="s">
-        <v>22</v>
-      </c>
       <c r="D447" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E447">
         <v>306.7</v>
@@ -29590,16 +29590,16 @@
     </row>
     <row r="448" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B448" t="s">
+        <v>20</v>
+      </c>
+      <c r="C448" t="s">
         <v>21</v>
       </c>
-      <c r="C448" t="s">
-        <v>22</v>
-      </c>
       <c r="D448" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E448">
         <v>-178.9498274188048</v>
@@ -29655,16 +29655,16 @@
     </row>
     <row r="449" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B449" t="s">
+        <v>20</v>
+      </c>
+      <c r="C449" t="s">
         <v>21</v>
       </c>
-      <c r="C449" t="s">
-        <v>22</v>
-      </c>
       <c r="D449" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E449">
         <v>390</v>
@@ -29720,16 +29720,16 @@
     </row>
     <row r="450" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B450" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C450" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D450" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E450">
         <v>0</v>
@@ -29785,16 +29785,16 @@
     </row>
     <row r="451" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B451" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C451" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D451" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E451">
         <v>0</v>
@@ -29850,16 +29850,16 @@
     </row>
     <row r="452" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B452" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C452" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D452" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E452">
         <v>0</v>
@@ -29915,16 +29915,16 @@
     </row>
     <row r="453" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B453" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C453" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D453" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E453">
         <v>0</v>
@@ -29980,16 +29980,16 @@
     </row>
     <row r="454" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B454" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C454" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D454" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E454">
         <v>0</v>
@@ -30045,16 +30045,16 @@
     </row>
     <row r="455" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B455" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C455" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D455" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E455">
         <v>0</v>
@@ -30110,16 +30110,16 @@
     </row>
     <row r="456" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B456" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C456" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D456" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E456">
         <v>0</v>
@@ -30175,16 +30175,16 @@
     </row>
     <row r="457" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B457" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C457" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D457" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E457">
         <v>-2579.4951025641026</v>
@@ -30240,16 +30240,16 @@
     </row>
     <row r="458" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B458" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C458" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D458" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E458">
         <v>-4021.6531322616815</v>
@@ -30305,16 +30305,16 @@
     </row>
     <row r="459" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B459" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C459" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D459" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E459">
         <v>2800.7498025573927</v>
@@ -30370,16 +30370,16 @@
     </row>
     <row r="460" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B460" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C460" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D460" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E460">
         <v>94.240188712497371</v>
@@ -30435,16 +30435,16 @@
     </row>
     <row r="461" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B461" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C461" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D461" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E461">
         <v>5380.2449051214953</v>
@@ -30500,16 +30500,16 @@
     </row>
     <row r="462" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B462" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C462" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D462" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E462">
         <v>-2706.5096138448953</v>
@@ -30565,16 +30565,16 @@
     </row>
     <row r="463" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B463" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C463" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D463" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E463">
         <v>9401.8980373831764</v>
@@ -30630,16 +30630,16 @@
     </row>
     <row r="464" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B464" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C464" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D464" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E464">
         <v>-2115.1735955056183</v>
@@ -30695,16 +30695,16 @@
     </row>
     <row r="465" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B465" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C465" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D465" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E465">
         <v>-1888.3397629999999</v>
@@ -30760,16 +30760,16 @@
     </row>
     <row r="466" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B466" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C466" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D466" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E466">
         <v>3033.8866414943814</v>
@@ -30825,16 +30825,16 @@
     </row>
     <row r="467" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B467" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C467" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D467" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E467">
         <v>244.27092980032648</v>
@@ -30890,16 +30890,16 @@
     </row>
     <row r="468" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B468" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C468" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D468" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E468">
         <v>5149.0602369999997</v>
@@ -30955,16 +30955,16 @@
     </row>
     <row r="469" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B469" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C469" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D469" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E469">
         <v>-2789.6157116940549</v>
@@ -31020,16 +31020,16 @@
     </row>
     <row r="470" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B470" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C470" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D470" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E470">
         <v>7037.4</v>
@@ -31085,16 +31085,16 @@
     </row>
     <row r="471" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B471" t="s">
+        <v>32</v>
+      </c>
+      <c r="C471" t="s">
         <v>33</v>
       </c>
-      <c r="C471" t="s">
-        <v>34</v>
-      </c>
       <c r="D471" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E471">
         <v>-4019.0913648557503</v>
@@ -31150,16 +31150,16 @@
     </row>
     <row r="472" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B472" t="s">
+        <v>32</v>
+      </c>
+      <c r="C472" t="s">
         <v>33</v>
       </c>
-      <c r="C472" t="s">
-        <v>34</v>
-      </c>
       <c r="D472" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E472">
         <v>-6129.2736166336917</v>
@@ -31215,16 +31215,16 @@
     </row>
     <row r="473" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B473" t="s">
+        <v>32</v>
+      </c>
+      <c r="C473" t="s">
         <v>33</v>
       </c>
-      <c r="C473" t="s">
-        <v>34</v>
-      </c>
       <c r="D473" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E473">
         <v>4876.2756347937357</v>
@@ -31280,16 +31280,16 @@
     </row>
     <row r="474" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B474" t="s">
+        <v>32</v>
+      </c>
+      <c r="C474" t="s">
         <v>33</v>
       </c>
-      <c r="C474" t="s">
-        <v>34</v>
-      </c>
       <c r="D474" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E474">
         <v>1088.604657499598</v>
@@ -31345,16 +31345,16 @@
     </row>
     <row r="475" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B475" t="s">
+        <v>32</v>
+      </c>
+      <c r="C475" t="s">
         <v>33</v>
       </c>
-      <c r="C475" t="s">
-        <v>34</v>
-      </c>
       <c r="D475" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E475">
         <v>8895.3669996494864</v>
@@ -31410,16 +31410,16 @@
     </row>
     <row r="476" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B476" t="s">
+        <v>32</v>
+      </c>
+      <c r="C476" t="s">
         <v>33</v>
       </c>
-      <c r="C476" t="s">
-        <v>34</v>
-      </c>
       <c r="D476" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E476">
         <v>-3787.6709772941376</v>
@@ -31475,16 +31475,16 @@
     </row>
     <row r="477" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B477" t="s">
+        <v>32</v>
+      </c>
+      <c r="C477" t="s">
         <v>33</v>
       </c>
-      <c r="C477" t="s">
-        <v>34</v>
-      </c>
       <c r="D477" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E477">
         <v>15024.640616283177</v>
@@ -31540,16 +31540,16 @@
     </row>
     <row r="478" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B478" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C478" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D478" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E478">
         <v>-905.36358266807088</v>
@@ -31605,16 +31605,16 @@
     </row>
     <row r="479" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B479" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C479" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D479" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E479">
         <v>-508.54425233428969</v>
@@ -31670,16 +31670,16 @@
     </row>
     <row r="480" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B480" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C480" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D480" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E480">
         <v>735.27300609754593</v>
@@ -31735,16 +31735,16 @@
     </row>
     <row r="481" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B481" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C481" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D481" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E481">
         <v>412.92810113751165</v>
@@ -31800,16 +31800,16 @@
     </row>
     <row r="482" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B482" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C482" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D482" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E482">
         <v>1640.6365887656168</v>
@@ -31865,16 +31865,16 @@
     </row>
     <row r="483" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B483" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C483" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D483" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E483">
         <v>-322.34490496003428</v>
@@ -31930,16 +31930,16 @@
     </row>
     <row r="484" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B484" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C484" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D484" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E484">
         <v>2149.1808410999065</v>
@@ -31995,16 +31995,16 @@
     </row>
     <row r="485" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B485" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C485" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D485" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E485">
         <v>-2177.424064516129</v>
@@ -32060,16 +32060,16 @@
     </row>
     <row r="486" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B486" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C486" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D486" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E486">
         <v>-470.46392616822436</v>
@@ -32125,16 +32125,16 @@
     </row>
     <row r="487" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B487" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C487" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D487" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E487">
         <v>506.32443922218863</v>
@@ -32190,16 +32190,16 @@
     </row>
     <row r="488" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B488" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C488" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D488" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E488">
         <v>-239.33860290400082</v>
@@ -32255,16 +32255,16 @@
     </row>
     <row r="489" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B489" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C489" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D489" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E489">
         <v>2683.7485037383176</v>
@@ -32320,16 +32320,16 @@
     </row>
     <row r="490" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B490" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C490" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D490" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E490">
         <v>-745.66304212618945</v>
@@ -32385,16 +32385,16 @@
     </row>
     <row r="491" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B491" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C491" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D491" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E491">
         <v>3154.2124299065417</v>
@@ -32450,16 +32450,16 @@
     </row>
     <row r="492" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B492" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C492" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D492" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E492">
         <v>0</v>
@@ -32515,16 +32515,16 @@
     </row>
     <row r="493" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B493" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C493" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D493" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E493">
         <v>0</v>
@@ -32580,16 +32580,16 @@
     </row>
     <row r="494" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B494" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C494" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D494" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E494">
         <v>0</v>
@@ -32645,16 +32645,16 @@
     </row>
     <row r="495" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B495" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C495" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D495" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E495">
         <v>-77.645499999999998</v>
@@ -32710,16 +32710,16 @@
     </row>
     <row r="496" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B496" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C496" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D496" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E496">
         <v>0</v>
@@ -32775,16 +32775,16 @@
     </row>
     <row r="497" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B497" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C497" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D497" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E497">
         <v>-77.645499999999998</v>
@@ -32840,16 +32840,16 @@
     </row>
     <row r="498" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B498" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C498" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D498" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E498">
         <v>0</v>
@@ -32905,16 +32905,16 @@
     </row>
     <row r="499" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B499" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C499" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D499" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E499">
         <v>-2440.0000000000005</v>
@@ -32970,16 +32970,16 @@
     </row>
     <row r="500" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B500" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C500" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D500" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E500">
         <v>-129.95327102803739</v>
@@ -33035,16 +33035,16 @@
     </row>
     <row r="501" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B501" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C501" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D501" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E501">
         <v>850.60747663551365</v>
@@ -33100,16 +33100,16 @@
     </row>
     <row r="502" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B502" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C502" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D502" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E502">
         <v>204.98749752602544</v>
@@ -33165,16 +33165,16 @@
     </row>
     <row r="503" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B503" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C503" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D503" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E503">
         <v>3290.6074766355141</v>
@@ -33230,16 +33230,16 @@
     </row>
     <row r="504" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B504" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C504" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D504" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E504">
         <v>-645.61997910948821</v>
@@ -33295,16 +33295,16 @@
     </row>
     <row r="505" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B505" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C505" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D505" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E505">
         <v>3420.5607476635514</v>
@@ -33360,16 +33360,16 @@
     </row>
     <row r="506" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B506" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C506" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D506" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E506">
         <v>-486.98133828996288</v>
@@ -33425,16 +33425,16 @@
     </row>
     <row r="507" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B507" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C507" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D507" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E507">
         <v>-295.66522869158877</v>
@@ -33490,16 +33490,16 @@
     </row>
     <row r="508" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B508" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C508" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D508" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E508">
         <v>441.63361993433637</v>
@@ -33555,16 +33555,16 @@
     </row>
     <row r="509" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B509" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C509" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D509" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E509">
         <v>15.31429528951884</v>
@@ -33620,16 +33620,16 @@
     </row>
     <row r="510" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B510" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C510" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D510" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E510">
         <v>928.61495822429924</v>
@@ -33685,16 +33685,16 @@
     </row>
     <row r="511" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B511" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C511" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D511" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E511">
         <v>-426.31932464481753</v>
@@ -33750,16 +33750,16 @@
     </row>
     <row r="512" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B512" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C512" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D512" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E512">
         <v>1224.280186915888</v>
@@ -33815,16 +33815,16 @@
     </row>
     <row r="513" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B513" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C513" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D513" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E513">
         <v>-1028.9473684210527</v>
@@ -33880,16 +33880,16 @@
     </row>
     <row r="514" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B514" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C514" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D514" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E514">
         <v>-1221.2709851401869</v>
@@ -33945,16 +33945,16 @@
     </row>
     <row r="515" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B515" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C515" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D515" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E515">
         <v>1403.9872539153955</v>
@@ -34010,16 +34010,16 @@
     </row>
     <row r="516" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B516" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C516" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D516" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E516">
         <v>32.73515626550958</v>
@@ -34075,16 +34075,16 @@
     </row>
     <row r="517" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B517" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C517" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D517" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E517">
         <v>2432.9346223364482</v>
@@ -34140,16 +34140,16 @@
     </row>
     <row r="518" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B518" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C518" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D518" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E518">
         <v>-1371.2520976498859</v>
@@ -34205,16 +34205,16 @@
     </row>
     <row r="519" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B519" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C519" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D519" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E519">
         <v>3654.2056074766351</v>
@@ -34270,16 +34270,16 @@
     </row>
     <row r="520" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B520" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C520" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D520" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E520">
         <v>-815.12712044817931</v>
@@ -34335,16 +34335,16 @@
     </row>
     <row r="521" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B521" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C521" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D521" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E521">
         <v>-673.13594943925239</v>
@@ -34400,16 +34400,16 @@
     </row>
     <row r="522" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B522" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C522" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D522" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E522">
         <v>1231.3666684303255</v>
@@ -34465,16 +34465,16 @@
     </row>
     <row r="523" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B523" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C523" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D523" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E523">
         <v>206.25485066625711</v>
@@ -34530,16 +34530,16 @@
     </row>
     <row r="524" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B524" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C524" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D524" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E524">
         <v>2046.4937888785048</v>
@@ -34595,16 +34595,16 @@
     </row>
     <row r="525" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B525" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C525" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D525" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E525">
         <v>-1025.1118177640683</v>
@@ -34660,16 +34660,16 @@
     </row>
     <row r="526" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B526" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C526" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D526" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E526">
         <v>2719.6297383177571</v>
@@ -34725,16 +34725,16 @@
     </row>
     <row r="527" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B527" t="s">
+        <v>41</v>
+      </c>
+      <c r="C527" t="s">
         <v>42</v>
       </c>
-      <c r="C527" t="s">
-        <v>43</v>
-      </c>
       <c r="D527" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E527">
         <v>-945.66107388461535</v>
@@ -34790,16 +34790,16 @@
     </row>
     <row r="528" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B528" t="s">
+        <v>41</v>
+      </c>
+      <c r="C528" t="s">
         <v>42</v>
       </c>
-      <c r="C528" t="s">
-        <v>43</v>
-      </c>
       <c r="D528" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E528">
         <v>-1186.2993768846154</v>
@@ -34855,16 +34855,16 @@
     </row>
     <row r="529" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B529" t="s">
+        <v>41</v>
+      </c>
+      <c r="C529" t="s">
         <v>42</v>
       </c>
-      <c r="C529" t="s">
-        <v>43</v>
-      </c>
       <c r="D529" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E529">
         <v>1403.2211338461539</v>
@@ -34920,16 +34920,16 @@
     </row>
     <row r="530" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B530" t="s">
+        <v>41</v>
+      </c>
+      <c r="C530" t="s">
         <v>42</v>
       </c>
-      <c r="C530" t="s">
-        <v>43</v>
-      </c>
       <c r="D530" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E530">
         <v>47.673275986188841</v>
@@ -34985,16 +34985,16 @@
     </row>
     <row r="531" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B531" t="s">
+        <v>41</v>
+      </c>
+      <c r="C531" t="s">
         <v>42</v>
       </c>
-      <c r="C531" t="s">
-        <v>43</v>
-      </c>
       <c r="D531" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E531">
         <v>2348.8822077307691</v>
@@ -35050,16 +35050,16 @@
     </row>
     <row r="532" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B532" t="s">
+        <v>41</v>
+      </c>
+      <c r="C532" t="s">
         <v>42</v>
       </c>
-      <c r="C532" t="s">
-        <v>43</v>
-      </c>
       <c r="D532" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E532">
         <v>-1355.547857859965</v>
@@ -35115,16 +35115,16 @@
     </row>
     <row r="533" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B533" t="s">
+        <v>41</v>
+      </c>
+      <c r="C533" t="s">
         <v>42</v>
       </c>
-      <c r="C533" t="s">
-        <v>43</v>
-      </c>
       <c r="D533" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E533">
         <v>3535.1815846153845</v>
@@ -35180,16 +35180,16 @@
     </row>
     <row r="534" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B534" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C534" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D534" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E534">
         <v>-1957.7612498950305</v>
@@ -35245,16 +35245,16 @@
     </row>
     <row r="535" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B535" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C535" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D535" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E535">
         <v>-2254.30702979751</v>
@@ -35310,16 +35310,16 @@
     </row>
     <row r="536" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B536" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C536" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D536" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E536">
         <v>2740.728682551493</v>
@@ -35375,16 +35375,16 @@
     </row>
     <row r="537" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B537" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C537" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D537" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E537">
         <v>24.076953761094011</v>
@@ -35440,16 +35440,16 @@
     </row>
     <row r="538" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B538" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C538" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D538" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E538">
         <v>4698.4899324465232</v>
@@ -35505,16 +35505,16 @@
     </row>
     <row r="539" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B539" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C539" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D539" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E539">
         <v>-2716.6517287903989</v>
@@ -35570,16 +35570,16 @@
     </row>
     <row r="540" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B540" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C540" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D540" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E540">
         <v>6952.7969622440332</v>
